--- a/input_data/relative risks.xlsx
+++ b/input_data/relative risks.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvaughan\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\indata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C91B653-C399-4ADA-8B36-B4C9BA429F72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="257910" yWindow="0" windowWidth="21915" windowHeight="11865"/>
+    <workbookView xWindow="250200" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use This" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="81">
   <si>
     <t>reflux</t>
   </si>
@@ -39,6 +45,217 @@
   </si>
   <si>
     <t>BMI</t>
+  </si>
+  <si>
+    <t>Risk_Factor</t>
+  </si>
+  <si>
+    <t>family.history</t>
+  </si>
+  <si>
+    <t>physical.activity</t>
+  </si>
+  <si>
+    <t>segment.length</t>
+  </si>
+  <si>
+    <t>statins</t>
+  </si>
+  <si>
+    <t>SIM_Status</t>
+  </si>
+  <si>
+    <t>rflevel_cat</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>NSAIDs</t>
+  </si>
+  <si>
+    <t>betase</t>
+  </si>
+  <si>
+    <t>lowCI</t>
+  </si>
+  <si>
+    <t>highCI</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>use_me</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Risk_Factor_level</t>
+  </si>
+  <si>
+    <t>prev</t>
+  </si>
+  <si>
+    <t>Notes2</t>
+  </si>
+  <si>
+    <t>biopsy.abn</t>
+  </si>
+  <si>
+    <t>temp_se_pval</t>
+  </si>
+  <si>
+    <t>temp_se_CI</t>
+  </si>
+  <si>
+    <t>temp_zscore_pval</t>
+  </si>
+  <si>
+    <t>temp_zscore_CI</t>
+  </si>
+  <si>
+    <t>temp_pval_CI</t>
+  </si>
+  <si>
+    <t>pval</t>
+  </si>
+  <si>
+    <t>EVER  0.68 (0.56–0.83)</t>
+  </si>
+  <si>
+    <t>Sun X, et al. Cancer Epidem Bio Prev 25, 727-735 (2016).</t>
+  </si>
+  <si>
+    <t>REFLUX</t>
+  </si>
+  <si>
+    <t>SMOKING</t>
+  </si>
+  <si>
+    <t>FAM HISTORY</t>
+  </si>
+  <si>
+    <t>STATINS</t>
+  </si>
+  <si>
+    <t>PHYS ACTIVITY</t>
+  </si>
+  <si>
+    <t>. level 2</t>
+  </si>
+  <si>
+    <t>. level 3</t>
+  </si>
+  <si>
+    <t>. level 4</t>
+  </si>
+  <si>
+    <t>. ever smoke</t>
+  </si>
+  <si>
+    <t>. 25-29</t>
+  </si>
+  <si>
+    <t>. 30-34</t>
+  </si>
+  <si>
+    <t>. 35-39</t>
+  </si>
+  <si>
+    <t>. 40+</t>
+  </si>
+  <si>
+    <t>BIOPSY</t>
+  </si>
+  <si>
+    <t>. LGD</t>
+  </si>
+  <si>
+    <t>. HGD/DNA abnor</t>
+  </si>
+  <si>
+    <t>SEGMENT LENGTH</t>
+  </si>
+  <si>
+    <t>. 1-3 cm</t>
+  </si>
+  <si>
+    <t>. 4-6 cm</t>
+  </si>
+  <si>
+    <t>. 7+ cm</t>
+  </si>
+  <si>
+    <t>Parasa, S. et al. Gastroenterology 154, 1282-1289.e2 (2018); 
+Sikkema M, et al. Am J Gastro 106, 1231-1238 (2011); Anaparthy, R. et al. ClinGastro Hepatol 11, 1430-1436 (2013)</t>
+  </si>
+  <si>
+    <t>Krishnamoorthi, R et al. Gastro Endo 84, 40–46.e7 (2016).</t>
+  </si>
+  <si>
+    <t>. &lt;weekly</t>
+  </si>
+  <si>
+    <t>. weekly - daily</t>
+  </si>
+  <si>
+    <t>. &gt; daily</t>
+  </si>
+  <si>
+    <t>SCREEN NEGATIVE</t>
+  </si>
+  <si>
+    <t>Vaughan, T. L. &amp; Fitzgerald, R. C. Precision prevention of oesophageal adenocarcinoma. Nat Rev Gastroenterol Hepatol 12, 243–248 (2015).</t>
+  </si>
+  <si>
+    <t>0.2 * 0.1 * 0.92</t>
+  </si>
+  <si>
+    <t>. yes</t>
+  </si>
+  <si>
+    <t>screen.neg</t>
+  </si>
+  <si>
+    <t>prevalence reversed for protective</t>
+  </si>
+  <si>
+    <t>Parasa, Gastroenterology (2018);
+Krishnamoorthi, Am. J. Gastroenterol (2017);
+Duits, Gastroenterology (2017)
+Reid, Am J Gastroenterol 95, 1669–76 (2000);
+Rastogi, Gastrointestinal endoscopy (2008); 
+Choi,  Gut (2017); 
+Galipeau, PLoS medicine 4 (2007);
+Anaparthy, Nature Rev Gastro Hepatology (2014);
+Singh, Gastrointestinal Endoscopy (2014).</t>
+  </si>
+  <si>
+    <t>Averaged 2 Ors and put p-value at 0.01</t>
+  </si>
+  <si>
+    <t>Tan MC, et al.. Alimentary Pharmacology &amp; Therapeutics. http://onlinelibrary.wiley.com/doi/abs/10.1111/apt.14895 [Accessed July 3, 2018];
+Hardikar S, et al. PloS one 8, e52192 (2013).</t>
+  </si>
+  <si>
+    <t>. fam hx 1</t>
+  </si>
+  <si>
+    <t>Estimated as sqroot of relative risk from population-based study (Moore SC, 2016).</t>
+  </si>
+  <si>
+    <t>. fam hx 2+</t>
+  </si>
+  <si>
+    <t>Vaughan T, et al. Lancet Oncology 6:945–52 (2005); Jankowski JAZ, et al. Lancet 392, 400–408 (2018).</t>
+  </si>
+  <si>
+    <t>RR based on one half of trend coefficient in general population, and an assigned p-value=0.05 (Cook MB, et al. PLoS ONE 9, e103508 (2014).</t>
   </si>
   <si>
     <r>
@@ -46,6 +263,35 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PLoS ONE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 9, e103508 (2014). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cook MB, et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -57,6 +303,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -72,6 +319,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -83,6 +331,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -93,65 +342,12 @@
     </r>
   </si>
   <si>
-    <t>Risk_Factor</t>
-  </si>
-  <si>
-    <t>family.history</t>
-  </si>
-  <si>
-    <t>physical.activity</t>
-  </si>
-  <si>
-    <t>segment.length</t>
-  </si>
-  <si>
-    <t>statins</t>
-  </si>
-  <si>
-    <t>SIM_Status</t>
-  </si>
-  <si>
-    <t>rflevel_cat</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>NSAIDs</t>
-  </si>
-  <si>
-    <t>betase</t>
-  </si>
-  <si>
-    <t>lowCI</t>
-  </si>
-  <si>
-    <t>highCI</t>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <t>use_me</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Risk_Factor_level</t>
-  </si>
-  <si>
-    <t>prev</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Cook MB, et al. </t>
+      <t xml:space="preserve">Liao LM, et al. </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -159,24 +355,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PLoS ONE</t>
+      <t>Gastro</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 9, e103508 (2014). </t>
+      <t xml:space="preserve"> 142, 442-452 (2012).</t>
     </r>
   </si>
   <si>
-    <t>Notes2</t>
-  </si>
-  <si>
-    <t>biopsy.abn</t>
+    <r>
+      <t xml:space="preserve">Thomas T, et al. J Gastrointest Cancer (2017); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Anon. Statistical Brief #459, https://meps.ahrq.gov/data_files/publications/st459/stat459.shtml.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -184,6 +390,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -195,6 +402,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -205,245 +413,36 @@
     </r>
   </si>
   <si>
-    <t>temp_se_pval</t>
-  </si>
-  <si>
-    <t>temp_se_CI</t>
-  </si>
-  <si>
-    <t>temp_zscore_pval</t>
-  </si>
-  <si>
-    <t>temp_zscore_CI</t>
-  </si>
-  <si>
-    <t>temp_pval_CI</t>
-  </si>
-  <si>
-    <t>pval</t>
-  </si>
-  <si>
-    <t>EVER  0.68 (0.56–0.83)</t>
-  </si>
-  <si>
-    <t>Sun X, et al. Cancer Epidem Bio Prev 25, 727-735 (2016).</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Liao LM, et al. </t>
+      <t xml:space="preserve">Thomas T, Loke Y, Beales ILP. J Gastrointest Cancer (2017); </t>
     </r>
     <r>
       <rPr>
-        <i/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Gastro</t>
+      <t>Krishnamoorthi R, et al. Gastro Endo 84, 40–46.e7 (2016)</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 142, 442-452 (2012).</t>
-    </r>
-  </si>
-  <si>
-    <t>REFLUX</t>
-  </si>
-  <si>
-    <t>SMOKING</t>
-  </si>
-  <si>
-    <t>FAM HISTORY</t>
-  </si>
-  <si>
-    <t>STATINS</t>
-  </si>
-  <si>
-    <t>PHYS ACTIVITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">. current NSAIDs </t>
   </si>
   <si>
     <t>. current statins</t>
   </si>
   <si>
-    <t>. level 2</t>
-  </si>
-  <si>
-    <t>. level 3</t>
-  </si>
-  <si>
-    <t>. level 4</t>
-  </si>
-  <si>
-    <t>. ever smoke</t>
-  </si>
-  <si>
-    <t>. 25-29</t>
-  </si>
-  <si>
-    <t>. 30-34</t>
-  </si>
-  <si>
-    <t>. 35-39</t>
-  </si>
-  <si>
-    <t>. 40+</t>
-  </si>
-  <si>
-    <t>BIOPSY</t>
-  </si>
-  <si>
-    <t>. LGD</t>
-  </si>
-  <si>
-    <t>. HGD/DNA abnor</t>
-  </si>
-  <si>
-    <t>SEGMENT LENGTH</t>
-  </si>
-  <si>
-    <t>. 1-3 cm</t>
-  </si>
-  <si>
-    <t>. 4-6 cm</t>
-  </si>
-  <si>
-    <t>. 7+ cm</t>
-  </si>
-  <si>
-    <t>Parasa, S. et al. Gastroenterology 154, 1282-1289.e2 (2018); 
-Sikkema M, et al. Am J Gastro 106, 1231-1238 (2011); Anaparthy, R. et al. ClinGastro Hepatol 11, 1430-1436 (2013)</t>
-  </si>
-  <si>
-    <t>Krishnamoorthi, et al.  Gastro Endo 84, 40–46.e7 (2016);
-Nguyen T, et al. Gastroenterology. 2015 Nov;149(6):1392–8;
-Kantor, E. D., Cancer Epidem Biomarkers Prev 21, 456–61 (2012);
-Singh, et al. 2013 Clinical Gastroenterology and Hepatology 11, 620–629 (2013).</t>
-  </si>
-  <si>
-    <t>Krishnamoorthi, R et al. Gastro Endo 84, 40–46.e7 (2016).</t>
-  </si>
-  <si>
-    <t>. &lt;weekly</t>
-  </si>
-  <si>
-    <t>. weekly - daily</t>
-  </si>
-  <si>
-    <t>. &gt; daily</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vaughan T, et al. Lancet Oncol 6, 945-52 (2005);
-Galipeau, P. C. et al. PLoS medicine 4, e67 (2007);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>raised conservatively to population figure 0.4 (Liao, 2012).</t>
-    </r>
-  </si>
-  <si>
-    <t>SCREEN NEGATIVE</t>
-  </si>
-  <si>
-    <t>Vaughan, T. L. &amp; Fitzgerald, R. C. Precision prevention of oesophageal adenocarcinoma. Nat Rev Gastroenterol Hepatol 12, 243–248 (2015).</t>
-  </si>
-  <si>
-    <t>0.2 * 0.1 * 0.92</t>
-  </si>
-  <si>
-    <t>. yes</t>
-  </si>
-  <si>
-    <t>screen.neg</t>
-  </si>
-  <si>
-    <t>prevalence reversed for protective</t>
-  </si>
-  <si>
-    <t>Parasa, Gastroenterology (2018);
-Krishnamoorthi, Am. J. Gastroenterol (2017);
-Duits, Gastroenterology (2017)
-Reid, Am J Gastroenterol 95, 1669–76 (2000);
-Rastogi, Gastrointestinal endoscopy (2008); 
-Choi,  Gut (2017); 
-Galipeau, PLoS medicine 4 (2007);
-Anaparthy, Nature Rev Gastro Hepatology (2014);
-Singh, Gastrointestinal Endoscopy (2014).</t>
-  </si>
-  <si>
-    <t>Averaged 2 Ors and put p-value at 0.01</t>
-  </si>
-  <si>
-    <t>Tan MC, et al.. Alimentary Pharmacology &amp; Therapeutics. http://onlinelibrary.wiley.com/doi/abs/10.1111/apt.14895 [Accessed July 3, 2018];
-Hardikar S, et al. PloS one 8, e52192 (2013).</t>
-  </si>
-  <si>
-    <t>. fam hx 1</t>
-  </si>
-  <si>
-    <t>Beales I, Disease of the Esophagus 26:838-846 (2016).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Estimated as 2/3 root of relative risk from above (Cook MB, et al. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PLoS ONE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 9, e103508 (2014)).</t>
-    </r>
-  </si>
-  <si>
-    <t>Estimated as sqroot of relative risk from population-based study (Moore SC, 2016).</t>
-  </si>
-  <si>
-    <t>. fam hx 2+</t>
+    <t>. current NSAIDs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +451,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,7 +477,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -512,7 +534,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -520,11 +542,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -538,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,7 +580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,7 +602,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,7 +649,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,7 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -669,6 +700,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,12 +998,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,9 +1018,9 @@
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="15.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="16" width="15.140625" customWidth="1"/>
     <col min="17" max="17" width="53.28515625" customWidth="1"/>
     <col min="19" max="19" width="61" style="4" customWidth="1"/>
     <col min="20" max="20" width="9.140625" customWidth="1"/>
@@ -979,61 +1028,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1048,7 +1097,7 @@
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F2" s="13">
         <v>0</v>
@@ -1067,8 +1116,8 @@
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="30" t="s">
-        <v>25</v>
+      <c r="Q2" s="64" t="s">
+        <v>72</v>
       </c>
       <c r="R2" s="14">
         <v>0.51400000000000001</v>
@@ -1089,7 +1138,7 @@
         <v>2.08</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F3" s="13">
         <v>1</v>
@@ -1125,7 +1174,7 @@
         <v>1.6240713427374025E-2</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R3" s="14">
         <v>0.3584</v>
@@ -1146,7 +1195,7 @@
         <v>5.07</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F4" s="13">
         <v>2</v>
@@ -1182,7 +1231,7 @@
         <v>5.764162583877814E-10</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R4" s="14">
         <v>8.5900000000000004E-2</v>
@@ -1203,7 +1252,7 @@
         <v>7.96</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F5" s="13">
         <v>3</v>
@@ -1239,7 +1288,7 @@
         <v>3.3741832825691089E-12</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R5" s="14">
         <v>4.1799999999999997E-2</v>
@@ -1258,7 +1307,7 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
@@ -1277,8 +1326,8 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="32" t="s">
-        <v>5</v>
+      <c r="Q6" s="65" t="s">
+        <v>73</v>
       </c>
       <c r="R6" s="8">
         <v>0.41</v>
@@ -1299,7 +1348,7 @@
         <v>1.96</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -1335,7 +1384,7 @@
         <v>5.4766696329453029E-13</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R7" s="8">
         <v>0.59</v>
@@ -1373,8 +1422,8 @@
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="30" t="s">
-        <v>6</v>
+      <c r="Q8" s="64" t="s">
+        <v>74</v>
       </c>
       <c r="R8" s="14">
         <v>0.4526</v>
@@ -1395,7 +1444,7 @@
         <v>1.54</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
@@ -1431,7 +1480,7 @@
         <v>1.9373201373742651E-5</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R9" s="14">
         <v>0.40660000000000002</v>
@@ -1452,7 +1501,7 @@
         <v>2.39</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F10" s="13">
         <v>2</v>
@@ -1488,7 +1537,7 @@
         <v>6.2720066717402E-11</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R10" s="14">
         <v>0.10580000000000001</v>
@@ -1509,7 +1558,7 @@
         <v>2.79</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F11" s="13">
         <v>3</v>
@@ -1545,7 +1594,7 @@
         <v>4.4416166633722635E-7</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R11" s="14">
         <v>2.5999999999999999E-2</v>
@@ -1566,7 +1615,7 @@
         <v>4.76</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F12" s="13">
         <v>4</v>
@@ -1602,7 +1651,7 @@
         <v>2.1880916844002064E-10</v>
       </c>
       <c r="Q12" s="30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R12" s="14">
         <v>8.9999999999999993E-3</v>
@@ -1611,7 +1660,7 @@
     </row>
     <row r="13" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="6">
         <v>0</v>
@@ -1621,7 +1670,7 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
@@ -1641,7 +1690,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R13" s="8">
         <v>0.97</v>
@@ -1650,7 +1699,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
@@ -1662,7 +1711,7 @@
         <v>2.76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
@@ -1706,7 +1755,7 @@
         <v>3.5121095539893121E-6</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R14" s="8">
         <v>0.03</v>
@@ -1715,7 +1764,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
@@ -1728,7 +1777,7 @@
         <v>7.6175999999999968</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F15" s="7">
         <v>2</v>
@@ -1762,7 +1811,9 @@
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
-      <c r="Q15" s="33"/>
+      <c r="Q15" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="R15" s="8">
         <v>1E-3</v>
       </c>
@@ -1780,7 +1831,7 @@
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" s="13">
         <v>0</v>
@@ -1799,14 +1850,14 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="34" t="s">
-        <v>37</v>
+      <c r="Q16" s="66" t="s">
+        <v>75</v>
       </c>
       <c r="R16" s="15">
         <v>0.5</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1820,57 +1871,55 @@
         <v>1</v>
       </c>
       <c r="D17" s="12">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
       </c>
       <c r="G17" s="15">
         <f>LN(D17)</f>
-        <v>-0.916290731874155</v>
+        <v>-1.0216512475319814</v>
       </c>
       <c r="H17" s="15">
-        <v>0.26190127376773054</v>
+        <v>0.28025823690513002</v>
       </c>
       <c r="I17" s="49">
-        <f>EXP($G17-1.96*$H17)</f>
-        <v>0.23940054042201614</v>
+        <v>0.21</v>
       </c>
       <c r="J17" s="49">
-        <f>EXP($G17+1.96*$H17)</f>
-        <v>0.66833600173980989</v>
+        <v>0.63</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="14">
         <f t="shared" ref="N17" si="17">(LN(J17) - LN(I17))/(2*1.96)</f>
-        <v>0.26190127376773054</v>
+        <v>0.28025823690513002</v>
       </c>
       <c r="O17" s="14">
         <f t="shared" ref="O17" si="18">ABS(LN(D17)/N17)</f>
-        <v>3.4986112083088821</v>
+        <v>3.6453924024285493</v>
       </c>
       <c r="P17" s="14">
         <f t="shared" ref="P17" si="19">EXP(-0.717*O17 - 0.416*O17^2)</f>
-        <v>5.0022083987205667E-4</v>
+        <v>2.9107696771541082E-4</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R17" s="15">
         <v>0.5</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="16">
         <v>0</v>
@@ -1880,7 +1929,7 @@
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F18" s="18">
         <v>0</v>
@@ -1899,19 +1948,19 @@
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
-      <c r="Q18" s="32" t="s">
-        <v>77</v>
+      <c r="Q18" s="67" t="s">
+        <v>76</v>
       </c>
       <c r="R18" s="55">
         <v>0.35</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" s="16">
         <v>0</v>
@@ -1920,41 +1969,41 @@
         <v>1</v>
       </c>
       <c r="D19" s="16">
-        <v>0.52</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="F19" s="16">
         <v>1</v>
       </c>
       <c r="G19" s="8">
         <f>LN(D19)</f>
-        <v>-0.65392646740666394</v>
+        <v>-0.56211891815354131</v>
       </c>
       <c r="H19" s="8">
-        <v>9.1540629277578833E-2</v>
+        <v>0.14528908790631853</v>
       </c>
       <c r="I19" s="50">
-        <v>0.28000000000000003</v>
+        <v>0.43</v>
       </c>
       <c r="J19" s="49">
-        <v>0.92</v>
+        <v>0.76</v>
       </c>
       <c r="N19" s="8">
         <f>(LN(J19) - LN(I19))/(2*1.96)</f>
-        <v>0.30346532318210107</v>
+        <v>0.14528908790631853</v>
       </c>
       <c r="O19" s="8">
         <f>ABS(LN(D19)/N19)</f>
-        <v>2.1548638920245295</v>
+        <v>3.8689685939524376</v>
       </c>
       <c r="P19" s="8">
         <f>EXP(-0.717*O19 - 0.416*O19^2)</f>
-        <v>3.0909002881295382E-2</v>
+        <v>1.2327161786094981E-4</v>
       </c>
       <c r="Q19" s="35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R19" s="56">
         <v>0.65</v>
@@ -1963,7 +2012,7 @@
     </row>
     <row r="20" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" s="11">
         <v>0</v>
@@ -1973,7 +2022,7 @@
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F20" s="13">
         <v>0</v>
@@ -1992,8 +2041,8 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
-      <c r="Q20" s="34" t="s">
-        <v>28</v>
+      <c r="Q20" s="66" t="s">
+        <v>77</v>
       </c>
       <c r="R20" s="15">
         <v>0.25</v>
@@ -2002,7 +2051,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" s="11">
         <v>0</v>
@@ -2014,7 +2063,7 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
@@ -2049,7 +2098,7 @@
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R21" s="15">
         <v>0.25</v>
@@ -2058,7 +2107,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" s="11">
         <v>0</v>
@@ -2071,7 +2120,7 @@
         <v>0.74132100000000001</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F22" s="13">
         <v>2</v>
@@ -2107,7 +2156,7 @@
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R22" s="15">
         <v>0.25</v>
@@ -2116,7 +2165,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" s="11">
         <v>0</v>
@@ -2129,7 +2178,7 @@
         <v>0.63827738099999998</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F23" s="13">
         <v>3</v>
@@ -2165,7 +2214,7 @@
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R23" s="15">
         <v>0.25</v>
@@ -2174,7 +2223,7 @@
     </row>
     <row r="24" spans="1:19" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B24" s="21">
         <v>0</v>
@@ -2184,15 +2233,15 @@
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F24" s="23">
         <v>0</v>
       </c>
-      <c r="G24" s="12">
-        <v>0</v>
-      </c>
-      <c r="H24" s="12">
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
         <v>0</v>
       </c>
       <c r="I24" s="27"/>
@@ -2201,18 +2250,18 @@
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
       <c r="Q24" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="R24" s="55">
         <v>1.84E-2</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B25" s="21">
         <v>0</v>
@@ -2224,48 +2273,48 @@
         <v>0.33</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F25" s="23">
         <v>1</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="19">
         <f t="shared" si="20"/>
         <v>-1.1086626245216111</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="19">
         <v>0.56661507806391909</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="19">
         <f>EXP($G25-1.96*$H25)</f>
         <v>0.10869296813401993</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="19">
         <f>EXP($G25+1.96*$H25)</f>
         <v>1.0019047402010846</v>
       </c>
       <c r="K25" s="54">
         <v>0.05</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="19">
         <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K25))</f>
         <v>1.9566415851654133</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="19">
         <f>ABS(LN(D25) / L25)</f>
         <v>0.56661507806391909</v>
       </c>
       <c r="Q25" s="53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R25" s="55">
         <v>0.98160000000000003</v>
       </c>
       <c r="S25" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="57"/>
       <c r="B26" s="57"/>
       <c r="C26" s="57"/>
@@ -2286,217 +2335,200 @@
       <c r="R26" s="60"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="11">
-        <v>1</v>
-      </c>
-      <c r="C27" s="11">
-        <v>1</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="13">
-        <v>0</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-      <c r="H27" s="12">
-        <v>0</v>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="R27" s="14">
+    <row r="27" spans="1:19" s="8" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="R27" s="8">
         <v>0.1</v>
       </c>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="11">
-        <v>1</v>
-      </c>
-      <c r="C28" s="11">
-        <v>1</v>
-      </c>
-      <c r="D28" s="12">
-        <f>EXP(G3*0.67)</f>
-        <v>1.6334371714549192</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="13">
-        <v>1</v>
-      </c>
-      <c r="G28" s="12">
+    <row r="28" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <f>EXP(G3*0.5)</f>
+        <v>1.4422205101855958</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
         <f t="shared" ref="G28:G30" si="25">LN(D28)</f>
-        <v>0.49068648878786186</v>
-      </c>
-      <c r="H28" s="12">
-        <v>0.25077995505568257</v>
-      </c>
-      <c r="I28" s="15">
+        <v>0.36618394685661337</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.1871492201908079</v>
+      </c>
+      <c r="I28" s="19">
         <f t="shared" ref="I28:I30" si="26">EXP($G28-1.96*$H28)</f>
-        <v>0.99915813144906762</v>
-      </c>
-      <c r="J28" s="15">
+        <v>0.99937167276291416</v>
+      </c>
+      <c r="J28" s="19">
         <f t="shared" ref="J28:J30" si="27">EXP($G28+1.96*$H28)</f>
-        <v>2.6703650894789872</v>
-      </c>
-      <c r="K28" s="49">
+        <v>2.081307742343272</v>
+      </c>
+      <c r="K28" s="8">
         <v>0.05</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="19">
         <f t="shared" ref="L28:L30" si="28" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K28))</f>
         <v>1.9566415851654133</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="19">
         <f t="shared" ref="M28:M30" si="29">ABS(LN(D28) / L28)</f>
-        <v>0.25077995505568257</v>
-      </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="R28" s="14">
+        <v>0.1871492201908079</v>
+      </c>
+      <c r="Q28" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="8">
         <v>0.1</v>
       </c>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="11">
-        <v>1</v>
-      </c>
-      <c r="C29" s="11">
-        <v>1</v>
-      </c>
-      <c r="D29" s="12">
-        <f>EXP(G4*0.67)</f>
-        <v>2.9672581594727543</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="13">
+    <row r="29" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" ref="D29:D30" si="30">EXP(G4*0.5)</f>
+        <v>2.2516660498395407</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="7">
         <v>2</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="2">
         <f t="shared" si="25"/>
-        <v>1.0876383477940716</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0.55586999481160637</v>
-      </c>
-      <c r="I29" s="15">
+        <v>0.81167040880154595</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.4148283543370197</v>
+      </c>
+      <c r="I29" s="19">
         <f t="shared" si="26"/>
-        <v>0.99813489942906919</v>
-      </c>
-      <c r="J29" s="15">
+        <v>0.99860780430580842</v>
+      </c>
+      <c r="J29" s="19">
         <f t="shared" si="27"/>
-        <v>8.8210731735698875</v>
-      </c>
-      <c r="K29" s="14">
+        <v>5.0770682725882148</v>
+      </c>
+      <c r="K29" s="8">
         <v>0.05</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="19">
         <f t="shared" si="28"/>
         <v>1.9566415851654133</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="19">
         <f t="shared" si="29"/>
-        <v>0.55586999481160637</v>
-      </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="R29" s="14">
+        <v>0.4148283543370197</v>
+      </c>
+      <c r="Q29" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="8">
         <v>0.4</v>
       </c>
       <c r="S29" s="9"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="11">
-        <v>1</v>
-      </c>
-      <c r="C30" s="11">
-        <v>1</v>
-      </c>
-      <c r="D30" s="12">
-        <f>EXP(G5*0.67)</f>
-        <v>4.0143178392147041</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="13">
+    <row r="30" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="30"/>
+        <v>2.8213471959331771</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="7">
         <v>3</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="2">
         <f t="shared" si="25"/>
-        <v>1.3898674299037155</v>
-      </c>
-      <c r="H30" s="12">
-        <v>0.71033317519223482</v>
-      </c>
-      <c r="I30" s="15">
+        <v>1.0372144999281458</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.53009938447181693</v>
+      </c>
+      <c r="I30" s="19">
         <f t="shared" si="26"/>
-        <v>0.99761724979363564</v>
-      </c>
-      <c r="J30" s="15">
+        <v>0.9982212901460954</v>
+      </c>
+      <c r="J30" s="19">
         <f t="shared" si="27"/>
-        <v>16.153236842657705</v>
-      </c>
-      <c r="K30" s="14">
+        <v>7.974183759229386</v>
+      </c>
+      <c r="K30" s="8">
         <v>0.05</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="19">
         <f t="shared" si="28"/>
         <v>1.9566415851654133</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="19">
         <f t="shared" si="29"/>
-        <v>0.71033317519223482</v>
-      </c>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="R30" s="14">
+        <v>0.53009938447181693</v>
+      </c>
+      <c r="Q30" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="8">
         <v>0.4</v>
       </c>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="1:19" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>1</v>
       </c>
@@ -2508,7 +2540,7 @@
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="40" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F31" s="42">
         <v>0</v>
@@ -2519,15 +2551,23 @@
       <c r="H31" s="41">
         <v>0</v>
       </c>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
       <c r="Q31" s="52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="R31" s="44">
         <v>0.36</v>
       </c>
       <c r="S31" s="45"/>
     </row>
-    <row r="32" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
         <v>1</v>
       </c>
@@ -2541,27 +2581,27 @@
         <v>1.6</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F32" s="42">
         <v>1</v>
       </c>
       <c r="G32" s="41">
-        <f t="shared" ref="G32" si="30">LN(D32)</f>
+        <f t="shared" ref="G32" si="31">LN(D32)</f>
         <v>0.47000362924573563</v>
       </c>
       <c r="H32" s="41">
         <v>0.19341121981124215</v>
       </c>
       <c r="I32" s="43">
-        <f t="shared" ref="I32:I37" si="31">EXP($G32-1.96*$H32)</f>
+        <f t="shared" ref="I32:I37" si="32">EXP($G32-1.96*$H32)</f>
         <v>1.0951788008826973</v>
       </c>
       <c r="J32" s="43">
-        <f t="shared" ref="J32:J37" si="32">EXP($G32+1.96*$H32)</f>
+        <f t="shared" ref="J32:J37" si="33">EXP($G32+1.96*$H32)</f>
         <v>2.3375178536478969</v>
       </c>
-      <c r="K32" s="49">
+      <c r="K32" s="43">
         <v>0.01</v>
       </c>
       <c r="L32" s="43">
@@ -2572,17 +2612,20 @@
         <f>ABS(LN(D32) / L32)</f>
         <v>0.18251681233822847</v>
       </c>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
       <c r="Q32" s="46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R32" s="44">
         <v>0.64</v>
       </c>
       <c r="S32" s="45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="24" customFormat="1" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>2</v>
       </c>
@@ -2606,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="R33" s="25">
         <v>0.3</v>
@@ -2627,7 +2670,7 @@
         <v>1.3</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F34" s="23">
         <v>1</v>
@@ -2640,11 +2683,11 @@
         <v>0.12395734354696404</v>
       </c>
       <c r="I34" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.019597428159736</v>
       </c>
       <c r="J34" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.6575169310207745</v>
       </c>
       <c r="K34" s="49">
@@ -2662,7 +2705,7 @@
       <c r="O34" s="28"/>
       <c r="P34" s="28"/>
       <c r="Q34" s="37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R34" s="25">
         <v>0.3</v>
@@ -2684,13 +2727,13 @@
         <v>1.69</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F35" s="23">
         <v>2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" ref="G35:G37" si="33">LN(D35)</f>
+        <f t="shared" ref="G35:G37" si="34">LN(D35)</f>
         <v>0.52472852893498212</v>
       </c>
       <c r="H35" s="22">
@@ -2698,29 +2741,29 @@
         <v>0.24791468709392808</v>
       </c>
       <c r="I35" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.039578915509948</v>
       </c>
       <c r="J35" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.7473623766205266</v>
       </c>
       <c r="K35" s="24">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="L35" s="27">
-        <f t="shared" ref="L35:L37" si="34" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K35))</f>
+        <f t="shared" ref="L35:L37" si="35" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K35))</f>
         <v>2.1165689499314611</v>
       </c>
       <c r="M35" s="27">
-        <f t="shared" ref="M35:M37" si="35">ABS(LN(D35) / L35)</f>
+        <f t="shared" ref="M35:M37" si="36">ABS(LN(D35) / L35)</f>
         <v>0.24791468709392808</v>
       </c>
       <c r="N35" s="28"/>
       <c r="O35" s="28"/>
       <c r="P35" s="28"/>
       <c r="Q35" s="37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R35" s="25">
         <v>0.3</v>
@@ -2742,13 +2785,13 @@
         <v>2.1970000000000001</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F36" s="23">
         <v>3</v>
       </c>
       <c r="G36" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.78709279340247318</v>
       </c>
       <c r="H36" s="22">
@@ -2756,29 +2799,29 @@
         <v>0.37187203064089214</v>
       </c>
       <c r="I36" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.0599519886230304</v>
       </c>
       <c r="J36" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.553799654897996</v>
       </c>
       <c r="K36" s="24">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="L36" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.1165689499314611</v>
       </c>
       <c r="M36" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.37187203064089214</v>
       </c>
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
       <c r="Q36" s="37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R36" s="25">
         <v>0.05</v>
@@ -2800,13 +2843,13 @@
         <v>2.8561000000000001</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F37" s="23">
         <v>4</v>
       </c>
       <c r="G37" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0494570578699642</v>
       </c>
       <c r="H37" s="22">
@@ -2814,36 +2857,36 @@
         <v>0.49582937418785616</v>
       </c>
       <c r="I37" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.0807243215728395</v>
       </c>
       <c r="J37" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>7.5480000284699891</v>
       </c>
       <c r="K37" s="24">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="L37" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.1165689499314611</v>
       </c>
       <c r="M37" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.49582937418785616</v>
       </c>
       <c r="N37" s="28"/>
       <c r="O37" s="28"/>
       <c r="P37" s="28"/>
       <c r="Q37" s="37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R37" s="25">
         <v>0.05</v>
       </c>
       <c r="S37" s="26"/>
     </row>
-    <row r="38" spans="1:19" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
         <v>3</v>
       </c>
@@ -2855,7 +2898,7 @@
       </c>
       <c r="D38" s="41"/>
       <c r="E38" s="41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F38" s="42">
         <v>0</v>
@@ -2866,15 +2909,15 @@
       <c r="H38" s="41">
         <v>0</v>
       </c>
-      <c r="Q38" s="47" t="s">
-        <v>66</v>
+      <c r="Q38" s="52" t="s">
+        <v>70</v>
       </c>
       <c r="R38" s="44">
         <v>0.5</v>
       </c>
       <c r="S38" s="45"/>
     </row>
-    <row r="39" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
         <v>3</v>
       </c>
@@ -2885,50 +2928,50 @@
         <v>1</v>
       </c>
       <c r="D39" s="41">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F39" s="42">
         <v>1</v>
       </c>
       <c r="G39" s="41">
         <f>LN(D39)</f>
-        <v>-0.916290731874155</v>
-      </c>
-      <c r="H39" s="43">
-        <v>0.2618976502660767</v>
+        <v>-1.1394342831883648</v>
+      </c>
+      <c r="H39" s="41">
+        <v>0.40317611621450206</v>
       </c>
       <c r="I39" s="49">
-        <v>0.24</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J39" s="49">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="N39" s="43">
         <f>(LN(J39) - LN(I39))/(2*1.96)</f>
-        <v>0.2618976502660767</v>
+        <v>0.40317611621450206</v>
       </c>
       <c r="O39" s="43">
         <f>ABS(LN(D39)/N39)</f>
-        <v>3.4986596135675261</v>
+        <v>2.8261452932448776</v>
       </c>
       <c r="P39" s="43">
         <f>EXP(-0.717*O39 - 0.416*O39^2)</f>
-        <v>5.0013300493969876E-4</v>
+        <v>4.753003152119988E-3</v>
       </c>
       <c r="Q39" s="51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R39" s="44">
         <v>0.5</v>
       </c>
       <c r="S39" s="45"/>
     </row>
-    <row r="40" spans="1:19" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40" s="21">
         <v>1</v>
@@ -2938,7 +2981,7 @@
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F40" s="23">
         <v>0</v>
@@ -2949,8 +2992,8 @@
       <c r="H40" s="22">
         <v>0</v>
       </c>
-      <c r="Q40" s="36" t="s">
-        <v>61</v>
+      <c r="Q40" s="68" t="s">
+        <v>78</v>
       </c>
       <c r="R40" s="25">
         <v>0.2</v>
@@ -2959,7 +3002,7 @@
     </row>
     <row r="41" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B41" s="21">
         <v>1</v>
@@ -2971,7 +3014,7 @@
         <v>0.61</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="F41" s="23">
         <v>1</v>
@@ -3003,7 +3046,7 @@
         <v>0.15954479487066478</v>
       </c>
       <c r="Q41" s="37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R41" s="25">
         <v>0.8</v>
@@ -3012,17 +3055,17 @@
     </row>
     <row r="42" spans="1:19" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B42" s="40">
         <v>1</v>
       </c>
       <c r="C42" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="40"/>
       <c r="E42" s="41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F42" s="42">
         <v>0</v>
@@ -3034,31 +3077,31 @@
         <v>0</v>
       </c>
       <c r="Q42" s="47" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="R42" s="44">
         <v>0.2</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B43" s="40">
         <v>1</v>
       </c>
       <c r="C43" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="41">
         <f>EXP(G21*0.5)</f>
         <v>0.92790085677296363</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F43" s="42">
         <v>1</v>
@@ -3082,15 +3125,15 @@
         <v>0.01</v>
       </c>
       <c r="L43" s="43">
-        <f t="shared" ref="L43:L45" si="36" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K43))</f>
+        <f t="shared" ref="L43:L45" si="37" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K43))</f>
         <v>2.5751251253213594</v>
       </c>
       <c r="M43" s="43">
-        <f t="shared" ref="M43:M45" si="37">ABS(LN(D43) / L43)</f>
+        <f t="shared" ref="M43:M45" si="38">ABS(LN(D43) / L43)</f>
         <v>2.9058932531623987E-2</v>
       </c>
       <c r="Q43" s="46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R43" s="44">
         <v>0.2</v>
@@ -3099,20 +3142,20 @@
     </row>
     <row r="44" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B44" s="40">
         <v>1</v>
       </c>
       <c r="C44" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="41">
         <f>EXP(LN(D43)*2)</f>
         <v>0.86099999999999999</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F44" s="42">
         <v>2</v>
@@ -3137,15 +3180,15 @@
         <v>0.01</v>
       </c>
       <c r="L44" s="43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2.5751251253213594</v>
       </c>
       <c r="M44" s="43">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>5.811786506324796E-2</v>
       </c>
       <c r="Q44" s="46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R44" s="44">
         <v>0.3</v>
@@ -3154,26 +3197,26 @@
     </row>
     <row r="45" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B45" s="40">
         <v>1</v>
       </c>
       <c r="C45" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="41">
         <f>EXP(LN(D43)*3)</f>
         <v>0.79892263768152161</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F45" s="42">
         <v>3</v>
       </c>
       <c r="G45" s="41">
-        <f t="shared" ref="G45:G48" si="38">LN(D45)</f>
+        <f t="shared" ref="G45:G48" si="39">LN(D45)</f>
         <v>-0.2244911618316095</v>
       </c>
       <c r="H45" s="41">
@@ -3181,7 +3224,7 @@
         <v>0.09</v>
       </c>
       <c r="I45" s="43">
-        <f t="shared" ref="I45:I52" si="39">EXP($G45-1.96*$H45)</f>
+        <f t="shared" ref="I45:I52" si="40">EXP($G45-1.96*$H45)</f>
         <v>0.66972294849043701</v>
       </c>
       <c r="J45" s="43">
@@ -3192,15 +3235,15 @@
         <v>0.01</v>
       </c>
       <c r="L45" s="43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2.5751251253213594</v>
       </c>
       <c r="M45" s="43">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8.7176797594871985E-2</v>
       </c>
       <c r="Q45" s="46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R45" s="44">
         <v>0.3</v>
@@ -3209,7 +3252,7 @@
     </row>
     <row r="46" spans="1:19" s="24" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B46" s="21">
         <v>1</v>
@@ -3219,7 +3262,7 @@
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F46" s="23">
         <v>0</v>
@@ -3231,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="36" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="R46" s="25">
         <v>0.86</v>
@@ -3240,7 +3283,7 @@
     </row>
     <row r="47" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B47" s="21">
         <v>1</v>
@@ -3252,13 +3295,13 @@
         <v>3.68</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F47" s="23">
         <v>1</v>
       </c>
       <c r="G47" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.3029127521808397</v>
       </c>
       <c r="H47" s="22">
@@ -3283,7 +3326,7 @@
         <v>9.2543967021286156E-12</v>
       </c>
       <c r="Q47" s="36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R47" s="25">
         <v>0.11</v>
@@ -3292,7 +3335,7 @@
     </row>
     <row r="48" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B48" s="21">
         <v>1</v>
@@ -3304,20 +3347,20 @@
         <v>20</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F48" s="23">
         <v>2</v>
       </c>
       <c r="G48" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2.9957322735539909</v>
       </c>
       <c r="H48" s="22">
         <v>0.76386837545884112</v>
       </c>
       <c r="I48" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.4751964833404605</v>
       </c>
       <c r="J48" s="24">
@@ -3328,15 +3371,15 @@
         <v>1E-4</v>
       </c>
       <c r="L48" s="24">
-        <f t="shared" ref="L48" si="40" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K48))</f>
+        <f t="shared" ref="L48" si="41" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K48))</f>
         <v>3.9217912009441571</v>
       </c>
       <c r="M48" s="24">
-        <f t="shared" ref="M48" si="41">ABS(LN(D48) / L48)</f>
+        <f t="shared" ref="M48" si="42">ABS(LN(D48) / L48)</f>
         <v>0.76386837545884112</v>
       </c>
       <c r="Q48" s="38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R48" s="25">
         <v>0.03</v>
@@ -3345,7 +3388,7 @@
     </row>
     <row r="49" spans="1:19" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B49" s="40">
         <v>1</v>
@@ -3355,7 +3398,7 @@
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="40" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F49" s="42">
         <v>0</v>
@@ -3367,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="47" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="R49" s="44">
         <v>0.4</v>
@@ -3376,7 +3419,7 @@
     </row>
     <row r="50" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50" s="40">
         <v>1</v>
@@ -3389,13 +3432,13 @@
         <v>1.2544000000000002</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F50" s="42">
         <v>1</v>
       </c>
       <c r="G50" s="41">
-        <f t="shared" ref="G50:G52" si="42">LN(D50)</f>
+        <f t="shared" ref="G50:G52" si="43">LN(D50)</f>
         <v>0.22665737061400648</v>
       </c>
       <c r="H50" s="41">
@@ -3403,18 +3446,18 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="I50" s="43">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0556718307109698</v>
       </c>
       <c r="J50" s="43">
-        <f t="shared" ref="J50:J52" si="43">EXP($G50+1.96*$H50)</f>
+        <f t="shared" ref="J50:J52" si="44">EXP($G50+1.96*$H50)</f>
         <v>1.4905383607141176</v>
       </c>
       <c r="K50" s="49">
         <v>0.01</v>
       </c>
       <c r="Q50" s="46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R50" s="44">
         <v>0.3</v>
@@ -3423,7 +3466,7 @@
     </row>
     <row r="51" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B51" s="40">
         <v>1</v>
@@ -3436,13 +3479,13 @@
         <v>1.7623416832000005</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F51" s="42">
         <v>2</v>
       </c>
       <c r="G51" s="41">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.5666434265350162</v>
       </c>
       <c r="H51" s="41">
@@ -3450,15 +3493,15 @@
         <v>0.21999999999999997</v>
       </c>
       <c r="I51" s="43">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.1450444148719017</v>
       </c>
       <c r="J51" s="43">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2.7124259705608611</v>
       </c>
       <c r="Q51" s="46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R51" s="44">
         <v>0.2</v>
@@ -3467,7 +3510,7 @@
     </row>
     <row r="52" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B52" s="40">
         <v>1</v>
@@ -3480,13 +3523,13 @@
         <v>2.4759631762948109</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F52" s="42">
         <v>3</v>
       </c>
       <c r="G52" s="41">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.90662948245602593</v>
       </c>
       <c r="H52" s="41">
@@ -3494,15 +3537,15 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="I52" s="43">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.2419832318025601</v>
       </c>
       <c r="J52" s="43">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.9359713508132499</v>
       </c>
       <c r="Q52" s="46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R52" s="44">
         <v>0.1</v>

--- a/input_data/relative risks.xlsx
+++ b/input_data/relative risks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C91B653-C399-4ADA-8B36-B4C9BA429F72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2907A5C-5910-42BE-BC2B-15CD31479957}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="250200" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="252420" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use This" sheetId="5" r:id="rId1"/>
@@ -1003,7 +1003,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomLeft" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,14 +1734,8 @@
       <c r="K14" s="8">
         <v>3.5121095539893121E-6</v>
       </c>
-      <c r="L14" s="15">
-        <f t="shared" ref="L14:L15" si="12" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K14))</f>
-        <v>4.6999728538648116</v>
-      </c>
-      <c r="M14" s="15">
-        <f t="shared" ref="M14:M15" si="13">ABS(LN(D14) / L14)</f>
-        <v>0.21600777521389919</v>
-      </c>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="8">
         <f>(LN(J14) - LN(I14))/(2*1.96)</f>
         <v>0.21600698756422612</v>
@@ -1783,29 +1777,29 @@
         <v>2</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" ref="G15" si="14">LN(D15)</f>
+        <f t="shared" ref="G15" si="12">LN(D15)</f>
         <v>2.0304613594581169</v>
       </c>
       <c r="H15" s="2">
         <v>0.43201555042779838</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" ref="I15" si="15">EXP($G15-1.96*$H15)</f>
+        <f t="shared" ref="I15" si="13">EXP($G15-1.96*$H15)</f>
         <v>3.2664732321906063</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" ref="J15" si="16">EXP($G15+1.96*$H15)</f>
+        <f t="shared" ref="J15" si="14">EXP($G15+1.96*$H15)</f>
         <v>17.764673283755815</v>
       </c>
       <c r="K15" s="49">
         <v>3.5121095539893121E-6</v>
       </c>
       <c r="L15" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="L15" si="15" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K15))</f>
         <v>4.6999728538648116</v>
       </c>
       <c r="M15" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="M15" si="16">ABS(LN(D15) / L15)</f>
         <v>0.43201555042779838</v>
       </c>
       <c r="N15" s="8"/>
@@ -1952,7 +1946,7 @@
         <v>76</v>
       </c>
       <c r="R18" s="55">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="S18" s="9" t="s">
         <v>63</v>
@@ -2006,7 +2000,7 @@
         <v>20</v>
       </c>
       <c r="R19" s="56">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="S19" s="9"/>
     </row>
@@ -2947,19 +2941,19 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="J39" s="49">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="N39" s="43">
         <f>(LN(J39) - LN(I39))/(2*1.96)</f>
-        <v>0.40317611621450206</v>
+        <v>0.43155000272221239</v>
       </c>
       <c r="O39" s="43">
         <f>ABS(LN(D39)/N39)</f>
-        <v>2.8261452932448776</v>
+        <v>2.640329686017441</v>
       </c>
       <c r="P39" s="43">
         <f>EXP(-0.717*O39 - 0.416*O39^2)</f>
-        <v>4.753003152119988E-3</v>
+        <v>8.285948266459172E-3</v>
       </c>
       <c r="Q39" s="51" t="s">
         <v>20</v>
@@ -2996,7 +2990,7 @@
         <v>78</v>
       </c>
       <c r="R40" s="25">
-        <v>0.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="S40" s="26"/>
     </row>
@@ -3011,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="22">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="E41" s="22" t="s">
         <v>79</v>
@@ -3021,35 +3015,36 @@
       </c>
       <c r="G41" s="22">
         <f>LN(D41)</f>
-        <v>-0.49429632181478012</v>
+        <v>-0.52763274208237199</v>
       </c>
       <c r="H41" s="22">
         <v>0.16</v>
       </c>
-      <c r="I41" s="24">
-        <f>EXP($G41-1.96*$H41)</f>
-        <v>0.44579488947420237</v>
-      </c>
-      <c r="J41" s="24">
-        <f>EXP($G41+1.96*$H41)</f>
-        <v>0.83468879699109466</v>
-      </c>
-      <c r="K41" s="49">
-        <v>2E-3</v>
-      </c>
-      <c r="L41" s="27">
-        <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K41))</f>
-        <v>3.0981663940555513</v>
-      </c>
-      <c r="M41" s="27">
-        <f>ABS(LN(D41) / L41)</f>
-        <v>0.15954479487066478</v>
+      <c r="I41" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="49">
+        <v>0.68</v>
+      </c>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="8">
+        <f>(LN(J41) - LN(I41))/(2*1.96)</f>
+        <v>7.8439974425500172E-2</v>
+      </c>
+      <c r="O41" s="43">
+        <f>ABS(LN(D41)/N41)</f>
+        <v>6.7265797311484468</v>
+      </c>
+      <c r="P41" s="43">
+        <f>EXP(-0.717*O41 - 0.416*O41^2)</f>
+        <v>5.3804843921173593E-11</v>
       </c>
       <c r="Q41" s="37" t="s">
         <v>20</v>
       </c>
       <c r="R41" s="25">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="S41" s="26"/>
     </row>
@@ -3277,7 +3272,7 @@
         <v>64</v>
       </c>
       <c r="R46" s="25">
-        <v>0.86</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="S46" s="26"/>
     </row>
@@ -3329,7 +3324,7 @@
         <v>20</v>
       </c>
       <c r="R47" s="25">
-        <v>0.11</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="S47" s="26"/>
     </row>
@@ -3382,7 +3377,7 @@
         <v>20</v>
       </c>
       <c r="R48" s="25">
-        <v>0.03</v>
+        <v>1.2E-2</v>
       </c>
       <c r="S48" s="26"/>
     </row>

--- a/input_data/relative risks.xlsx
+++ b/input_data/relative risks.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvaughan\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2907A5C-5910-42BE-BC2B-15CD31479957}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5482B8A4-7615-42C5-B365-DEC2EAC3D025}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252420" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="254655" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use This" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="83">
   <si>
     <t>reflux</t>
   </si>
@@ -432,6 +432,14 @@
   </si>
   <si>
     <t>. current NSAIDs</t>
+  </si>
+  <si>
+    <t>prevalence reversed for protective 
+(NEEDS FIXING IN CODE SO THIS IS NOT NECESSARY)</t>
+  </si>
+  <si>
+    <t>ORANGE HIGHLIGHTING INDICATES INPUT SOURCE
+(EITHER P-VALUE OR 95% CONFIDENCE INTERVAL)</t>
   </si>
 </sst>
 </file>
@@ -1001,9 +1009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,7 +1130,9 @@
       <c r="R2" s="14">
         <v>0.51400000000000001</v>
       </c>
-      <c r="S2" s="9"/>
+      <c r="S2" s="9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1851,7 +1861,7 @@
         <v>0.5</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">

--- a/input_data/relative risks.xlsx
+++ b/input_data/relative risks.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvaughan\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5482B8A4-7615-42C5-B365-DEC2EAC3D025}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2907A5C-5910-42BE-BC2B-15CD31479957}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="254655" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="252420" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use This" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="81">
   <si>
     <t>reflux</t>
   </si>
@@ -432,14 +432,6 @@
   </si>
   <si>
     <t>. current NSAIDs</t>
-  </si>
-  <si>
-    <t>prevalence reversed for protective 
-(NEEDS FIXING IN CODE SO THIS IS NOT NECESSARY)</t>
-  </si>
-  <si>
-    <t>ORANGE HIGHLIGHTING INDICATES INPUT SOURCE
-(EITHER P-VALUE OR 95% CONFIDENCE INTERVAL)</t>
   </si>
 </sst>
 </file>
@@ -1009,9 +1001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,9 +1122,7 @@
       <c r="R2" s="14">
         <v>0.51400000000000001</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>82</v>
-      </c>
+      <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1861,7 +1851,7 @@
         <v>0.5</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
